--- a/Commishes/CB/wilhelm_September_2022.xlsx
+++ b/Commishes/CB/wilhelm_September_2022.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://databank2-my.sharepoint.com/personal/mcalvert_databank_com/Documents/Desktop/DB_Commissions/Commishes/CB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_4DC5E3E6F613C8264F2C4CBAF51785D578227712" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396BDE31-C867-40EB-80EF-2125EA7BC894}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -199,8 +193,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,14 +257,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -317,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,27 +335,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,24 +369,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,21 +544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" customWidth="1"/>
-    <col min="3" max="9" width="18.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -651,7 +594,7 @@
         <v>44</v>
       </c>
       <c r="F2">
-        <v>89.65</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -660,7 +603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -686,7 +629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -712,7 +655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -738,7 +681,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -764,7 +707,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -790,7 +733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -816,7 +759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -842,7 +785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -868,7 +811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -894,7 +837,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -920,7 +863,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -946,7 +889,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -972,7 +915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -998,20 +941,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="E16">
-        <v>68564.539999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68564.53999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>22626.298200000001</v>
+        <v>22626.2982</v>
       </c>
     </row>
   </sheetData>
